--- a/1. DOC VIETTEL/Bộ Data nhập liệu/Danh_sách_Cán_bộ,_Công_chức,_Viên_chức_giả_định_nhập_liệu_PM_QLCB.xlsx
+++ b/1. DOC VIETTEL/Bộ Data nhập liệu/Danh_sách_Cán_bộ,_Công_chức,_Viên_chức_giả_định_nhập_liệu_PM_QLCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2022 - PROJECT\qlcb-bogtvt-documents\1. DOC VIETTEL\Bộ Data nhập liệu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67CB6BD-FE29-4474-9548-A970087070DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED978B94-D976-45BE-9950-6A11B2FD3A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -841,11 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -879,7 +878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1034,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1215,7 +1214,7 @@
       </c>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -1393,7 +1392,7 @@
       </c>
       <c r="F34" s="6"/>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>66</v>
       </c>
@@ -1573,7 +1572,7 @@
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>87</v>
       </c>
@@ -1757,7 +1756,7 @@
       </c>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>108</v>
       </c>
@@ -1769,7 +1768,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -1835,7 +1834,7 @@
       </c>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="5">
         <v>5</v>
       </c>
@@ -1853,7 +1852,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
         <v>6</v>
       </c>
@@ -1871,7 +1870,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="5">
         <v>7</v>
       </c>
@@ -1923,7 +1922,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
         <v>10</v>
       </c>
@@ -1940,18 +1939,7 @@
       <c r="F67" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D67" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CV"/>
-        <filter val="CVC"/>
-        <filter val="CVCC"/>
-        <filter val="Kế toán viên"/>
-        <filter val="KS"/>
-        <filter val="KSC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D67" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="6">
     <mergeCell ref="B57:F57"/>
     <mergeCell ref="B13:E13"/>
